--- a/biology/Histoire de la zoologie et de la botanique/Alex_Slater/Alex_Slater.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alex_Slater/Alex_Slater.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">James Alex Slater II (date de naissance inconnue) est un entomologiste américain, spécialiste des hétéroptères (« punaises ») de la famille des Lygaeidae, fils de l'entomologiste James A. Slater. Afin d'éviter la confusion avec son père, il signe ses publications de son second prénom, Alex Slater[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James Alex Slater II (date de naissance inconnue) est un entomologiste américain, spécialiste des hétéroptères (« punaises ») de la famille des Lygaeidae, fils de l'entomologiste James A. Slater. Afin d'éviter la confusion avec son père, il signe ses publications de son second prénom, Alex Slater.
 </t>
         </is>
       </c>
